--- a/27_02_2023/ADM_UL223314.xlsx
+++ b/27_02_2023/ADM_UL223314.xlsx
@@ -28,7 +28,7 @@
     <x:t>Description</x:t>
   </x:si>
   <x:si>
-    <x:t>UL223314</x:t>
+    <x:t>Plantilla Reframwork</x:t>
   </x:si>
   <x:si>
     <x:t>Administrativo</x:t>
